--- a/Team_Names_Abbrs_v02.xlsx
+++ b/Team_Names_Abbrs_v02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdona\repos\ncaa_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddb8727edf2838dd/Documents/Development/NCAA_Markov/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DE1EC2-728A-44AA-989F-33719F9BB43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{45DE1EC2-728A-44AA-989F-33719F9BB43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E35738A-6A82-484E-8313-C4650929718D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4752" yWindow="1260" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="1862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="1864">
   <si>
     <t>id</t>
   </si>
@@ -5606,6 +5606,12 @@
   </si>
   <si>
     <t>Morgan</t>
+  </si>
+  <si>
+    <t>Sonoma St.</t>
+  </si>
+  <si>
+    <t>Sonoma</t>
   </si>
 </sst>
 </file>
@@ -5973,19 +5979,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D681"/>
+  <dimension ref="A1:D682"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="B286" sqref="B286"/>
+    <sheetView tabSelected="1" topLeftCell="A669" workbookViewId="0">
+      <selection activeCell="A683" sqref="A683"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5999,7 +6005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -6013,7 +6019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6027,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6041,7 +6047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6055,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -6069,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -6083,7 +6089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -6097,7 +6103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -6111,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -6125,7 +6131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -6139,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -6153,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -6167,7 +6173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -6181,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -6195,7 +6201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -6209,7 +6215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -6223,7 +6229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -6237,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -6251,7 +6257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -6265,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -6279,7 +6285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -6293,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -6307,7 +6313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -6321,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -6335,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -6349,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -6363,7 +6369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -6377,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -6391,7 +6397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -6405,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -6419,7 +6425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -6433,7 +6439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -6447,7 +6453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -6461,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -6475,7 +6481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -6489,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -6503,7 +6509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -6517,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -6531,7 +6537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -6545,7 +6551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -6559,7 +6565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -6573,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -6587,7 +6593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -6601,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -6615,7 +6621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -6629,7 +6635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -6643,7 +6649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -6657,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -6671,7 +6677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -6685,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -6699,7 +6705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -6713,7 +6719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -6727,7 +6733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -6741,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -6755,7 +6761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -6769,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -6783,7 +6789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -6797,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -6811,7 +6817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -6825,7 +6831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -6839,7 +6845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -6853,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -6867,7 +6873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -6881,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -6895,7 +6901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -6909,7 +6915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -6923,7 +6929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -6937,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -6951,7 +6957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -6965,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -6979,7 +6985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -6993,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -7007,7 +7013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -7021,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -7035,7 +7041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -7049,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -7063,7 +7069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -7077,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -7091,7 +7097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -7105,7 +7111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -7119,7 +7125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -7133,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -7147,7 +7153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -7161,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -7175,7 +7181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -7189,7 +7195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -7203,7 +7209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -7217,7 +7223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -7231,7 +7237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -7245,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -7259,7 +7265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -7273,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -7287,7 +7293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -7301,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -7315,7 +7321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -7329,7 +7335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -7343,7 +7349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -7357,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -7371,7 +7377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -7385,7 +7391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -7399,7 +7405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -7413,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -7427,7 +7433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -7441,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -7455,7 +7461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -7469,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -7483,7 +7489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -7497,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -7511,7 +7517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -7525,7 +7531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -7539,7 +7545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -7553,7 +7559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -7567,7 +7573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -7581,7 +7587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -7595,7 +7601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -7609,7 +7615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -7623,7 +7629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -7637,7 +7643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -7651,7 +7657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -7665,7 +7671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -7679,7 +7685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -7693,7 +7699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -7707,7 +7713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -7721,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -7735,7 +7741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -7749,7 +7755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -7763,7 +7769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -7777,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -7791,7 +7797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -7805,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -7819,7 +7825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -7833,7 +7839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>135</v>
       </c>
@@ -7847,7 +7853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>136</v>
       </c>
@@ -7861,7 +7867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -7875,7 +7881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -7889,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -7903,7 +7909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -7917,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -7931,7 +7937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -7945,7 +7951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -7959,7 +7965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -7973,7 +7979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>145</v>
       </c>
@@ -7987,7 +7993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -8001,7 +8007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -8015,7 +8021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -8029,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -8043,7 +8049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -8057,7 +8063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>151</v>
       </c>
@@ -8071,7 +8077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -8085,7 +8091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -8099,7 +8105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>154</v>
       </c>
@@ -8113,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>155</v>
       </c>
@@ -8127,7 +8133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>156</v>
       </c>
@@ -8141,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>157</v>
       </c>
@@ -8155,7 +8161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -8169,7 +8175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>159</v>
       </c>
@@ -8183,7 +8189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>160</v>
       </c>
@@ -8197,7 +8203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -8211,7 +8217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>162</v>
       </c>
@@ -8225,7 +8231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>163</v>
       </c>
@@ -8239,7 +8245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>164</v>
       </c>
@@ -8253,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>165</v>
       </c>
@@ -8267,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>166</v>
       </c>
@@ -8281,7 +8287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>167</v>
       </c>
@@ -8295,7 +8301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -8309,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>169</v>
       </c>
@@ -8323,7 +8329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>170</v>
       </c>
@@ -8337,7 +8343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>171</v>
       </c>
@@ -8351,7 +8357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>172</v>
       </c>
@@ -8365,7 +8371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>173</v>
       </c>
@@ -8379,7 +8385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>174</v>
       </c>
@@ -8393,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>175</v>
       </c>
@@ -8407,7 +8413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>176</v>
       </c>
@@ -8421,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>177</v>
       </c>
@@ -8435,7 +8441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>178</v>
       </c>
@@ -8449,7 +8455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>179</v>
       </c>
@@ -8463,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>180</v>
       </c>
@@ -8477,7 +8483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>181</v>
       </c>
@@ -8491,7 +8497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>182</v>
       </c>
@@ -8505,7 +8511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>183</v>
       </c>
@@ -8519,7 +8525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>184</v>
       </c>
@@ -8533,7 +8539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>185</v>
       </c>
@@ -8547,7 +8553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>186</v>
       </c>
@@ -8561,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>187</v>
       </c>
@@ -8575,7 +8581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>188</v>
       </c>
@@ -8589,7 +8595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>189</v>
       </c>
@@ -8603,7 +8609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>190</v>
       </c>
@@ -8617,7 +8623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>191</v>
       </c>
@@ -8631,7 +8637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>192</v>
       </c>
@@ -8645,7 +8651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>193</v>
       </c>
@@ -8659,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>194</v>
       </c>
@@ -8673,7 +8679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>195</v>
       </c>
@@ -8687,7 +8693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>196</v>
       </c>
@@ -8701,7 +8707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>197</v>
       </c>
@@ -8715,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>198</v>
       </c>
@@ -8729,7 +8735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>199</v>
       </c>
@@ -8743,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>200</v>
       </c>
@@ -8757,7 +8763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>201</v>
       </c>
@@ -8771,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>202</v>
       </c>
@@ -8785,7 +8791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>203</v>
       </c>
@@ -8799,7 +8805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>204</v>
       </c>
@@ -8813,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>205</v>
       </c>
@@ -8827,7 +8833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>206</v>
       </c>
@@ -8841,7 +8847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>207</v>
       </c>
@@ -8855,7 +8861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>208</v>
       </c>
@@ -8869,7 +8875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>209</v>
       </c>
@@ -8883,7 +8889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>210</v>
       </c>
@@ -8897,7 +8903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>211</v>
       </c>
@@ -8911,7 +8917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>212</v>
       </c>
@@ -8925,7 +8931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>213</v>
       </c>
@@ -8939,7 +8945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>214</v>
       </c>
@@ -8953,7 +8959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>215</v>
       </c>
@@ -8967,7 +8973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>216</v>
       </c>
@@ -8981,7 +8987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>217</v>
       </c>
@@ -8995,7 +9001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>218</v>
       </c>
@@ -9009,7 +9015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>219</v>
       </c>
@@ -9023,7 +9029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>220</v>
       </c>
@@ -9037,7 +9043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>221</v>
       </c>
@@ -9051,7 +9057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>222</v>
       </c>
@@ -9065,7 +9071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>223</v>
       </c>
@@ -9079,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>224</v>
       </c>
@@ -9093,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>225</v>
       </c>
@@ -9107,7 +9113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>226</v>
       </c>
@@ -9121,7 +9127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>227</v>
       </c>
@@ -9135,7 +9141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>228</v>
       </c>
@@ -9149,7 +9155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>229</v>
       </c>
@@ -9163,7 +9169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>230</v>
       </c>
@@ -9177,7 +9183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>231</v>
       </c>
@@ -9191,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>232</v>
       </c>
@@ -9205,7 +9211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>233</v>
       </c>
@@ -9219,7 +9225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>234</v>
       </c>
@@ -9233,7 +9239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>235</v>
       </c>
@@ -9247,7 +9253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>236</v>
       </c>
@@ -9261,7 +9267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>237</v>
       </c>
@@ -9275,7 +9281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>238</v>
       </c>
@@ -9289,7 +9295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>239</v>
       </c>
@@ -9303,7 +9309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>240</v>
       </c>
@@ -9317,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>241</v>
       </c>
@@ -9331,7 +9337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>242</v>
       </c>
@@ -9345,7 +9351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>243</v>
       </c>
@@ -9359,7 +9365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>244</v>
       </c>
@@ -9373,7 +9379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>245</v>
       </c>
@@ -9387,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>246</v>
       </c>
@@ -9401,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>247</v>
       </c>
@@ -9415,7 +9421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>248</v>
       </c>
@@ -9429,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>249</v>
       </c>
@@ -9443,7 +9449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>250</v>
       </c>
@@ -9457,7 +9463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>251</v>
       </c>
@@ -9471,7 +9477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>252</v>
       </c>
@@ -9485,7 +9491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>253</v>
       </c>
@@ -9499,7 +9505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>254</v>
       </c>
@@ -9513,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>255</v>
       </c>
@@ -9527,7 +9533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>256</v>
       </c>
@@ -9541,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>257</v>
       </c>
@@ -9555,7 +9561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>258</v>
       </c>
@@ -9569,7 +9575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>259</v>
       </c>
@@ -9583,7 +9589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>260</v>
       </c>
@@ -9597,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>261</v>
       </c>
@@ -9611,7 +9617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>262</v>
       </c>
@@ -9625,7 +9631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>263</v>
       </c>
@@ -9639,7 +9645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>264</v>
       </c>
@@ -9653,7 +9659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>265</v>
       </c>
@@ -9667,7 +9673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>266</v>
       </c>
@@ -9681,7 +9687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>267</v>
       </c>
@@ -9695,7 +9701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>268</v>
       </c>
@@ -9709,7 +9715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>269</v>
       </c>
@@ -9723,7 +9729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>270</v>
       </c>
@@ -9737,7 +9743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>271</v>
       </c>
@@ -9751,7 +9757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>272</v>
       </c>
@@ -9765,7 +9771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>273</v>
       </c>
@@ -9779,7 +9785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>274</v>
       </c>
@@ -9793,7 +9799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>275</v>
       </c>
@@ -9807,7 +9813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>276</v>
       </c>
@@ -9821,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>277</v>
       </c>
@@ -9835,7 +9841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>278</v>
       </c>
@@ -9849,7 +9855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>279</v>
       </c>
@@ -9863,7 +9869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>280</v>
       </c>
@@ -9877,7 +9883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>281</v>
       </c>
@@ -9891,7 +9897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>282</v>
       </c>
@@ -9905,7 +9911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>283</v>
       </c>
@@ -9919,7 +9925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>284</v>
       </c>
@@ -9933,7 +9939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>285</v>
       </c>
@@ -9947,7 +9953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>286</v>
       </c>
@@ -9961,7 +9967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>287</v>
       </c>
@@ -9975,7 +9981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>288</v>
       </c>
@@ -9989,7 +9995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>289</v>
       </c>
@@ -10003,7 +10009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>290</v>
       </c>
@@ -10017,7 +10023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>291</v>
       </c>
@@ -10031,7 +10037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>292</v>
       </c>
@@ -10045,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>293</v>
       </c>
@@ -10059,7 +10065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>294</v>
       </c>
@@ -10073,7 +10079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>295</v>
       </c>
@@ -10087,7 +10093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>296</v>
       </c>
@@ -10101,7 +10107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>297</v>
       </c>
@@ -10115,7 +10121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>298</v>
       </c>
@@ -10129,7 +10135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>299</v>
       </c>
@@ -10143,7 +10149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>300</v>
       </c>
@@ -10157,7 +10163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>301</v>
       </c>
@@ -10171,7 +10177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>302</v>
       </c>
@@ -10185,7 +10191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>303</v>
       </c>
@@ -10199,7 +10205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>304</v>
       </c>
@@ -10213,7 +10219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>305</v>
       </c>
@@ -10227,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>306</v>
       </c>
@@ -10241,7 +10247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>307</v>
       </c>
@@ -10255,7 +10261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>308</v>
       </c>
@@ -10269,7 +10275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>309</v>
       </c>
@@ -10283,7 +10289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>310</v>
       </c>
@@ -10297,7 +10303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>311</v>
       </c>
@@ -10311,7 +10317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>312</v>
       </c>
@@ -10325,7 +10331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>313</v>
       </c>
@@ -10339,7 +10345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>314</v>
       </c>
@@ -10353,7 +10359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>315</v>
       </c>
@@ -10367,7 +10373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>316</v>
       </c>
@@ -10381,7 +10387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>317</v>
       </c>
@@ -10395,7 +10401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>318</v>
       </c>
@@ -10409,7 +10415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>319</v>
       </c>
@@ -10423,7 +10429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>320</v>
       </c>
@@ -10437,7 +10443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>321</v>
       </c>
@@ -10451,7 +10457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>322</v>
       </c>
@@ -10465,7 +10471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>323</v>
       </c>
@@ -10479,7 +10485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>324</v>
       </c>
@@ -10493,7 +10499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>325</v>
       </c>
@@ -10507,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>326</v>
       </c>
@@ -10521,7 +10527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>327</v>
       </c>
@@ -10535,7 +10541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>328</v>
       </c>
@@ -10549,7 +10555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>329</v>
       </c>
@@ -10563,7 +10569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>330</v>
       </c>
@@ -10577,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>331</v>
       </c>
@@ -10591,7 +10597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>332</v>
       </c>
@@ -10605,7 +10611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>333</v>
       </c>
@@ -10619,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>334</v>
       </c>
@@ -10633,7 +10639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>335</v>
       </c>
@@ -10647,7 +10653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>336</v>
       </c>
@@ -10661,7 +10667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>337</v>
       </c>
@@ -10675,7 +10681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>338</v>
       </c>
@@ -10689,7 +10695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>339</v>
       </c>
@@ -10703,7 +10709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>340</v>
       </c>
@@ -10717,7 +10723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>341</v>
       </c>
@@ -10731,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>342</v>
       </c>
@@ -10745,7 +10751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>343</v>
       </c>
@@ -10759,7 +10765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>344</v>
       </c>
@@ -10773,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>345</v>
       </c>
@@ -10787,7 +10793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>346</v>
       </c>
@@ -10801,7 +10807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>347</v>
       </c>
@@ -10815,7 +10821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>348</v>
       </c>
@@ -10829,7 +10835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>349</v>
       </c>
@@ -10843,7 +10849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>350</v>
       </c>
@@ -10857,7 +10863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>351</v>
       </c>
@@ -10871,7 +10877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>352</v>
       </c>
@@ -10885,7 +10891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>353</v>
       </c>
@@ -10899,7 +10905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>354</v>
       </c>
@@ -10913,7 +10919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>355</v>
       </c>
@@ -10927,7 +10933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>356</v>
       </c>
@@ -10941,7 +10947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>357</v>
       </c>
@@ -10955,7 +10961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>358</v>
       </c>
@@ -10969,7 +10975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>359</v>
       </c>
@@ -10983,7 +10989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>360</v>
       </c>
@@ -10997,7 +11003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>361</v>
       </c>
@@ -11011,7 +11017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>362</v>
       </c>
@@ -11025,7 +11031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>363</v>
       </c>
@@ -11039,7 +11045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>364</v>
       </c>
@@ -11053,7 +11059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>365</v>
       </c>
@@ -11067,7 +11073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>366</v>
       </c>
@@ -11081,7 +11087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>367</v>
       </c>
@@ -11095,7 +11101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>368</v>
       </c>
@@ -11109,7 +11115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>369</v>
       </c>
@@ -11123,7 +11129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>370</v>
       </c>
@@ -11137,7 +11143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>371</v>
       </c>
@@ -11151,7 +11157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>372</v>
       </c>
@@ -11165,7 +11171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>373</v>
       </c>
@@ -11179,7 +11185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>374</v>
       </c>
@@ -11193,7 +11199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>375</v>
       </c>
@@ -11207,7 +11213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>376</v>
       </c>
@@ -11221,7 +11227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>377</v>
       </c>
@@ -11235,7 +11241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>378</v>
       </c>
@@ -11249,7 +11255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>379</v>
       </c>
@@ -11263,7 +11269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>380</v>
       </c>
@@ -11277,7 +11283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>381</v>
       </c>
@@ -11291,7 +11297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>382</v>
       </c>
@@ -11305,7 +11311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>383</v>
       </c>
@@ -11319,7 +11325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>384</v>
       </c>
@@ -11333,7 +11339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>385</v>
       </c>
@@ -11347,7 +11353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>386</v>
       </c>
@@ -11361,7 +11367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>387</v>
       </c>
@@ -11375,7 +11381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>388</v>
       </c>
@@ -11389,7 +11395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>389</v>
       </c>
@@ -11403,7 +11409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>390</v>
       </c>
@@ -11417,7 +11423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>391</v>
       </c>
@@ -11431,7 +11437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>392</v>
       </c>
@@ -11445,7 +11451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>393</v>
       </c>
@@ -11459,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>394</v>
       </c>
@@ -11473,7 +11479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>395</v>
       </c>
@@ -11487,7 +11493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>396</v>
       </c>
@@ -11501,7 +11507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>397</v>
       </c>
@@ -11515,7 +11521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>398</v>
       </c>
@@ -11529,7 +11535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>399</v>
       </c>
@@ -11543,7 +11549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>400</v>
       </c>
@@ -11557,7 +11563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>401</v>
       </c>
@@ -11571,7 +11577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>402</v>
       </c>
@@ -11585,7 +11591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>403</v>
       </c>
@@ -11599,7 +11605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>404</v>
       </c>
@@ -11613,7 +11619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>405</v>
       </c>
@@ -11627,7 +11633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>406</v>
       </c>
@@ -11641,7 +11647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>407</v>
       </c>
@@ -11655,7 +11661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>408</v>
       </c>
@@ -11669,7 +11675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>409</v>
       </c>
@@ -11683,7 +11689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>410</v>
       </c>
@@ -11697,7 +11703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>411</v>
       </c>
@@ -11711,7 +11717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>412</v>
       </c>
@@ -11725,7 +11731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>413</v>
       </c>
@@ -11739,7 +11745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>414</v>
       </c>
@@ -11753,7 +11759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>415</v>
       </c>
@@ -11767,7 +11773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>416</v>
       </c>
@@ -11781,7 +11787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>417</v>
       </c>
@@ -11795,7 +11801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>418</v>
       </c>
@@ -11809,7 +11815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>419</v>
       </c>
@@ -11823,7 +11829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>420</v>
       </c>
@@ -11837,7 +11843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>421</v>
       </c>
@@ -11851,7 +11857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>422</v>
       </c>
@@ -11865,7 +11871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>423</v>
       </c>
@@ -11879,7 +11885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>424</v>
       </c>
@@ -11893,7 +11899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>425</v>
       </c>
@@ -11907,7 +11913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>426</v>
       </c>
@@ -11921,7 +11927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>427</v>
       </c>
@@ -11935,7 +11941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>428</v>
       </c>
@@ -11949,7 +11955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>429</v>
       </c>
@@ -11963,7 +11969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>430</v>
       </c>
@@ -11977,7 +11983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>431</v>
       </c>
@@ -11991,7 +11997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>432</v>
       </c>
@@ -12005,7 +12011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>433</v>
       </c>
@@ -12019,7 +12025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>434</v>
       </c>
@@ -12033,7 +12039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>435</v>
       </c>
@@ -12047,7 +12053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>436</v>
       </c>
@@ -12061,7 +12067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>437</v>
       </c>
@@ -12075,7 +12081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>438</v>
       </c>
@@ -12089,7 +12095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>439</v>
       </c>
@@ -12103,7 +12109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>440</v>
       </c>
@@ -12117,7 +12123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>441</v>
       </c>
@@ -12131,7 +12137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>442</v>
       </c>
@@ -12145,7 +12151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>443</v>
       </c>
@@ -12159,7 +12165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>444</v>
       </c>
@@ -12173,7 +12179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>445</v>
       </c>
@@ -12187,7 +12193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>446</v>
       </c>
@@ -12201,7 +12207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>447</v>
       </c>
@@ -12215,7 +12221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>448</v>
       </c>
@@ -12229,7 +12235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>449</v>
       </c>
@@ -12243,7 +12249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>450</v>
       </c>
@@ -12257,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>451</v>
       </c>
@@ -12271,7 +12277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>452</v>
       </c>
@@ -12285,7 +12291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>453</v>
       </c>
@@ -12299,7 +12305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>454</v>
       </c>
@@ -12313,7 +12319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>455</v>
       </c>
@@ -12327,7 +12333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>456</v>
       </c>
@@ -12341,7 +12347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>457</v>
       </c>
@@ -12355,7 +12361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>458</v>
       </c>
@@ -12369,7 +12375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>459</v>
       </c>
@@ -12383,7 +12389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>460</v>
       </c>
@@ -12397,7 +12403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>461</v>
       </c>
@@ -12411,7 +12417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>462</v>
       </c>
@@ -12425,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>463</v>
       </c>
@@ -12439,7 +12445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>464</v>
       </c>
@@ -12453,7 +12459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>465</v>
       </c>
@@ -12467,7 +12473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>466</v>
       </c>
@@ -12481,7 +12487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>467</v>
       </c>
@@ -12495,7 +12501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>468</v>
       </c>
@@ -12509,7 +12515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>469</v>
       </c>
@@ -12523,7 +12529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>470</v>
       </c>
@@ -12537,7 +12543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>471</v>
       </c>
@@ -12551,7 +12557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>472</v>
       </c>
@@ -12565,7 +12571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>473</v>
       </c>
@@ -12579,7 +12585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>474</v>
       </c>
@@ -12593,7 +12599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>475</v>
       </c>
@@ -12607,7 +12613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>476</v>
       </c>
@@ -12621,7 +12627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>477</v>
       </c>
@@ -12635,7 +12641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>478</v>
       </c>
@@ -12649,7 +12655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>479</v>
       </c>
@@ -12663,7 +12669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>480</v>
       </c>
@@ -12677,7 +12683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>481</v>
       </c>
@@ -12691,7 +12697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>482</v>
       </c>
@@ -12705,7 +12711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>483</v>
       </c>
@@ -12719,7 +12725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>484</v>
       </c>
@@ -12733,7 +12739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>485</v>
       </c>
@@ -12747,7 +12753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>486</v>
       </c>
@@ -12761,7 +12767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>487</v>
       </c>
@@ -12775,7 +12781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>488</v>
       </c>
@@ -12789,7 +12795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>489</v>
       </c>
@@ -12803,7 +12809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>490</v>
       </c>
@@ -12817,7 +12823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>491</v>
       </c>
@@ -12831,7 +12837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>492</v>
       </c>
@@ -12845,7 +12851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>493</v>
       </c>
@@ -12859,7 +12865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>494</v>
       </c>
@@ -12873,7 +12879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>495</v>
       </c>
@@ -12887,7 +12893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>496</v>
       </c>
@@ -12901,7 +12907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>497</v>
       </c>
@@ -12915,7 +12921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>498</v>
       </c>
@@ -12929,7 +12935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>499</v>
       </c>
@@ -12943,7 +12949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>500</v>
       </c>
@@ -12957,7 +12963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>501</v>
       </c>
@@ -12971,7 +12977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>502</v>
       </c>
@@ -12985,7 +12991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>503</v>
       </c>
@@ -12999,7 +13005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>504</v>
       </c>
@@ -13013,7 +13019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>505</v>
       </c>
@@ -13027,7 +13033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>506</v>
       </c>
@@ -13041,7 +13047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>507</v>
       </c>
@@ -13055,7 +13061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>508</v>
       </c>
@@ -13069,7 +13075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>509</v>
       </c>
@@ -13083,7 +13089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>510</v>
       </c>
@@ -13097,7 +13103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>511</v>
       </c>
@@ -13111,7 +13117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>512</v>
       </c>
@@ -13125,7 +13131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>513</v>
       </c>
@@ -13139,7 +13145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>514</v>
       </c>
@@ -13153,7 +13159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>515</v>
       </c>
@@ -13167,7 +13173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>516</v>
       </c>
@@ -13181,7 +13187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>517</v>
       </c>
@@ -13195,7 +13201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>518</v>
       </c>
@@ -13209,7 +13215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>519</v>
       </c>
@@ -13223,7 +13229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>520</v>
       </c>
@@ -13237,7 +13243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>521</v>
       </c>
@@ -13251,7 +13257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>522</v>
       </c>
@@ -13265,7 +13271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>523</v>
       </c>
@@ -13279,7 +13285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>524</v>
       </c>
@@ -13293,7 +13299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>525</v>
       </c>
@@ -13307,7 +13313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>526</v>
       </c>
@@ -13321,7 +13327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>527</v>
       </c>
@@ -13335,7 +13341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>528</v>
       </c>
@@ -13349,7 +13355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>529</v>
       </c>
@@ -13363,7 +13369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>530</v>
       </c>
@@ -13377,7 +13383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>531</v>
       </c>
@@ -13391,7 +13397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>532</v>
       </c>
@@ -13405,7 +13411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>533</v>
       </c>
@@ -13419,7 +13425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>534</v>
       </c>
@@ -13433,7 +13439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>535</v>
       </c>
@@ -13447,7 +13453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>536</v>
       </c>
@@ -13461,7 +13467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>537</v>
       </c>
@@ -13475,7 +13481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>538</v>
       </c>
@@ -13489,7 +13495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>539</v>
       </c>
@@ -13503,7 +13509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>540</v>
       </c>
@@ -13517,7 +13523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>541</v>
       </c>
@@ -13531,7 +13537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>542</v>
       </c>
@@ -13545,7 +13551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>543</v>
       </c>
@@ -13559,7 +13565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>544</v>
       </c>
@@ -13573,7 +13579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>545</v>
       </c>
@@ -13587,7 +13593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>546</v>
       </c>
@@ -13601,7 +13607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>547</v>
       </c>
@@ -13615,7 +13621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>548</v>
       </c>
@@ -13629,7 +13635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>549</v>
       </c>
@@ -13643,7 +13649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>550</v>
       </c>
@@ -13657,7 +13663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>551</v>
       </c>
@@ -13671,7 +13677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>552</v>
       </c>
@@ -13685,7 +13691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>553</v>
       </c>
@@ -13699,7 +13705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>554</v>
       </c>
@@ -13713,7 +13719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>555</v>
       </c>
@@ -13727,7 +13733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>556</v>
       </c>
@@ -13741,7 +13747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>557</v>
       </c>
@@ -13755,7 +13761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>558</v>
       </c>
@@ -13769,7 +13775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>559</v>
       </c>
@@ -13783,7 +13789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>560</v>
       </c>
@@ -13797,7 +13803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>561</v>
       </c>
@@ -13811,7 +13817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>562</v>
       </c>
@@ -13825,7 +13831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>563</v>
       </c>
@@ -13839,7 +13845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>564</v>
       </c>
@@ -13853,7 +13859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>565</v>
       </c>
@@ -13867,7 +13873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>566</v>
       </c>
@@ -13881,7 +13887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>567</v>
       </c>
@@ -13895,7 +13901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>568</v>
       </c>
@@ -13909,7 +13915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>569</v>
       </c>
@@ -13923,7 +13929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>570</v>
       </c>
@@ -13937,7 +13943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>571</v>
       </c>
@@ -13951,7 +13957,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>572</v>
       </c>
@@ -13965,7 +13971,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>573</v>
       </c>
@@ -13979,7 +13985,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>574</v>
       </c>
@@ -13993,7 +13999,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>575</v>
       </c>
@@ -14007,7 +14013,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>576</v>
       </c>
@@ -14021,7 +14027,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>577</v>
       </c>
@@ -14035,7 +14041,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>578</v>
       </c>
@@ -14049,7 +14055,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>579</v>
       </c>
@@ -14063,7 +14069,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>580</v>
       </c>
@@ -14077,7 +14083,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>581</v>
       </c>
@@ -14091,7 +14097,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>582</v>
       </c>
@@ -14105,7 +14111,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>583</v>
       </c>
@@ -14119,7 +14125,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>584</v>
       </c>
@@ -14133,7 +14139,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>585</v>
       </c>
@@ -14147,7 +14153,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>586</v>
       </c>
@@ -14161,7 +14167,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>587</v>
       </c>
@@ -14175,7 +14181,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>588</v>
       </c>
@@ -14189,7 +14195,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>589</v>
       </c>
@@ -14203,7 +14209,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>590</v>
       </c>
@@ -14217,7 +14223,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>591</v>
       </c>
@@ -14231,7 +14237,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>592</v>
       </c>
@@ -14245,7 +14251,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>593</v>
       </c>
@@ -14259,7 +14265,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>594</v>
       </c>
@@ -14273,7 +14279,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>595</v>
       </c>
@@ -14287,7 +14293,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>596</v>
       </c>
@@ -14301,7 +14307,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>597</v>
       </c>
@@ -14315,7 +14321,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>598</v>
       </c>
@@ -14329,7 +14335,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>599</v>
       </c>
@@ -14343,7 +14349,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>600</v>
       </c>
@@ -14357,7 +14363,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>601</v>
       </c>
@@ -14371,7 +14377,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>602</v>
       </c>
@@ -14385,7 +14391,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>603</v>
       </c>
@@ -14399,7 +14405,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>604</v>
       </c>
@@ -14413,7 +14419,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>605</v>
       </c>
@@ -14427,7 +14433,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>606</v>
       </c>
@@ -14441,7 +14447,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>607</v>
       </c>
@@ -14455,7 +14461,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>608</v>
       </c>
@@ -14469,7 +14475,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>609</v>
       </c>
@@ -14483,7 +14489,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>610</v>
       </c>
@@ -14497,7 +14503,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>611</v>
       </c>
@@ -14511,7 +14517,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>612</v>
       </c>
@@ -14525,7 +14531,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>613</v>
       </c>
@@ -14539,7 +14545,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>614</v>
       </c>
@@ -14553,7 +14559,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>615</v>
       </c>
@@ -14567,7 +14573,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>616</v>
       </c>
@@ -14581,7 +14587,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>617</v>
       </c>
@@ -14595,7 +14601,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>618</v>
       </c>
@@ -14609,7 +14615,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>619</v>
       </c>
@@ -14623,7 +14629,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>620</v>
       </c>
@@ -14637,7 +14643,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>621</v>
       </c>
@@ -14651,7 +14657,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>622</v>
       </c>
@@ -14665,7 +14671,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>623</v>
       </c>
@@ -14679,7 +14685,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>624</v>
       </c>
@@ -14693,7 +14699,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>625</v>
       </c>
@@ -14707,7 +14713,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>626</v>
       </c>
@@ -14721,7 +14727,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>627</v>
       </c>
@@ -14735,7 +14741,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>628</v>
       </c>
@@ -14749,7 +14755,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>629</v>
       </c>
@@ -14763,7 +14769,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>630</v>
       </c>
@@ -14777,7 +14783,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>631</v>
       </c>
@@ -14791,7 +14797,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>632</v>
       </c>
@@ -14805,7 +14811,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>633</v>
       </c>
@@ -14819,7 +14825,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>634</v>
       </c>
@@ -14833,7 +14839,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>635</v>
       </c>
@@ -14847,7 +14853,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>636</v>
       </c>
@@ -14861,7 +14867,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>637</v>
       </c>
@@ -14875,7 +14881,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>638</v>
       </c>
@@ -14889,7 +14895,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>639</v>
       </c>
@@ -14903,7 +14909,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>640</v>
       </c>
@@ -14917,7 +14923,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>641</v>
       </c>
@@ -14931,7 +14937,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>642</v>
       </c>
@@ -14945,7 +14951,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>643</v>
       </c>
@@ -14959,7 +14965,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>644</v>
       </c>
@@ -14973,7 +14979,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>645</v>
       </c>
@@ -14987,7 +14993,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>646</v>
       </c>
@@ -15001,7 +15007,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>647</v>
       </c>
@@ -15015,7 +15021,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>648</v>
       </c>
@@ -15029,7 +15035,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>649</v>
       </c>
@@ -15043,7 +15049,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>650</v>
       </c>
@@ -15057,7 +15063,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>651</v>
       </c>
@@ -15071,7 +15077,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>652</v>
       </c>
@@ -15085,7 +15091,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>653</v>
       </c>
@@ -15099,7 +15105,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>654</v>
       </c>
@@ -15113,7 +15119,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>655</v>
       </c>
@@ -15127,7 +15133,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>656</v>
       </c>
@@ -15141,7 +15147,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>657</v>
       </c>
@@ -15155,7 +15161,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>658</v>
       </c>
@@ -15169,7 +15175,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>659</v>
       </c>
@@ -15183,7 +15189,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>660</v>
       </c>
@@ -15197,7 +15203,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>661</v>
       </c>
@@ -15211,7 +15217,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>662</v>
       </c>
@@ -15225,7 +15231,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>663</v>
       </c>
@@ -15239,7 +15245,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>664</v>
       </c>
@@ -15253,7 +15259,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>665</v>
       </c>
@@ -15267,7 +15273,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>666</v>
       </c>
@@ -15281,7 +15287,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>667</v>
       </c>
@@ -15295,7 +15301,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>668</v>
       </c>
@@ -15309,7 +15315,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>669</v>
       </c>
@@ -15323,7 +15329,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>670</v>
       </c>
@@ -15337,7 +15343,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>671</v>
       </c>
@@ -15351,7 +15357,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>672</v>
       </c>
@@ -15365,7 +15371,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>673</v>
       </c>
@@ -15379,7 +15385,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>674</v>
       </c>
@@ -15393,7 +15399,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>675</v>
       </c>
@@ -15407,7 +15413,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>676</v>
       </c>
@@ -15421,7 +15427,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>677</v>
       </c>
@@ -15435,7 +15441,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>678</v>
       </c>
@@ -15449,7 +15455,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>679</v>
       </c>
@@ -15463,7 +15469,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>680</v>
       </c>
@@ -15477,7 +15483,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>681</v>
       </c>
@@ -15491,7 +15497,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>682</v>
       </c>
@@ -15505,7 +15511,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>683</v>
       </c>
@@ -15517,6 +15523,20 @@
       </c>
       <c r="D681" t="s">
         <v>1851</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A682">
+        <v>270</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C682" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D682" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
